--- a/domain_model/Domain Model Eligibility.xlsx
+++ b/domain_model/Domain Model Eligibility.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshishAdhikari\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AI\Phase II\healthcare_sql_generator\domain_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18F17E8-C55B-4591-B41F-D3294089169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0B8421-7271-4DB2-B409-9BB6C6E5B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71282556-F641-4A29-8E3B-79F171903E96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{71282556-F641-4A29-8E3B-79F171903E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Attribute</t>
   </si>
@@ -272,10 +261,7 @@
     <t>ZIP+4 allowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Employer Group </t>
-  </si>
-  <si>
-    <t>Array</t>
+    <t>Column Name</t>
   </si>
 </sst>
 </file>
@@ -334,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -370,68 +356,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -445,24 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,26 +709,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0588D786-E79F-4CD7-9DC2-8224410D79EB}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.453125" style="2"/>
+    <col min="1" max="1" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -835,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -851,7 +762,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -867,7 +778,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -885,7 +796,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -905,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -925,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -943,7 +854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -961,7 +872,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -979,7 +890,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,7 +910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1015,7 +926,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1031,7 +942,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -1049,7 +960,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1069,7 +980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -1087,7 +998,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1105,7 +1016,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
@@ -1125,159 +1036,115 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="A18:A25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
